--- a/ValidationAppWeb/serverSide/static/exports/General Accuracy.xlsx
+++ b/ValidationAppWeb/serverSide/static/exports/General Accuracy.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,12 +442,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total matches</t>
+          <t>Labels</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Coincident matches</t>
+          <t>True Positives</t>
         </is>
       </c>
     </row>
@@ -457,11 +457,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>conditioning exercise</t>
+          <t>fishing and hunting</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>inactivity quiet/light</t>
+          <t>home activities</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,14 +489,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>transportation</t>
+          <t>conditioning exercise</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,205 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>home repair</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bicycling</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>miscellaneous</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>volunteer activities</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dancing</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>winter activities</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>occupation</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>water activities</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>music playing</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>28</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lawn and garden</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>walking</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -526,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,12 +734,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total matches</t>
+          <t>Labels</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Coincident matches</t>
+          <t>True Positives</t>
         </is>
       </c>
     </row>
@@ -557,11 +749,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pilates, general</t>
+          <t>put on and removal of tarp - sailboat</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -573,11 +765,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t>bicycling, mountain</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -589,14 +781,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>riding in a bus or train</t>
+          <t>standing, miscellaneous</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +797,333 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>walking, for exerceise, with ski poles</t>
+          <t>walkrun play with children, moderate, only active periods</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sweeping garage, sidewalk or outside of house</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hunting, general</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sitting, doing work</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ethnic or cultural dancing (e.g., Greek, Middle Eastern, hula, salsa, merengue, bamba y plena, flame</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sledding, tobogganing, bobsledding, luge (Taylor Code 370)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>garbage collector, walking, dumping bins into truck</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>driving delivery truck, taxi, shuttle bus, school bus</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>snorkeling (Taylor Code 310)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cello, sitting</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>standing, talking in person</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>washing and waxing car</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>guitar, classical, folk, sitting</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kitchen activity, general, (e.g., cooking, washing dishes, cleaning up), moderate effort</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>horse grooming, feeding, cleaning, harnessing and unharnessing</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>laughing, sitting</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>food shopping with or without a grocery cart, standing or walking</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>snowmobiling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cooking or food preparation</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>running, stairs, up</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>using crutches</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
